--- a/data/zh-cn/character.xlsx
+++ b/data/zh-cn/character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46442\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD09BD7F-D8DE-4EDC-A25C-A6C767A4750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B823551-A378-45CC-8090-4A92FCC7BB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="634">
   <si>
     <t>人名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2446,6 +2446,18 @@
   </si>
   <si>
     <t>1045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅盐表plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2037</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2799,13 +2811,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6059,6 +6071,29 @@
         <v>629</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
